--- a/week4/embeddings.xlsx
+++ b/week4/embeddings.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuchen/Desktop/dso-560-nlp-text-analytics/week4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drpow\Documents\School - MSBA\DSO - 560 (NLP)\dso-560-nlp-text-analytics\week4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C1DC61-CD7C-E349-B73A-3F3F465BC88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0907EC8F-5DE9-409F-8D26-88847126E4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="25220" windowHeight="14660" xr2:uid="{A5673BE5-AC9B-F644-AC82-9F560DDB3F27}"/>
+    <workbookView xWindow="-23148" yWindow="2568" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A5673BE5-AC9B-F644-AC82-9F560DDB3F27}"/>
   </bookViews>
   <sheets>
     <sheet name="Embeddings" sheetId="1" r:id="rId1"/>
     <sheet name="Documents" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>I</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>Document Vector</t>
+  </si>
+  <si>
+    <t>DOC A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC B </t>
+  </si>
+  <si>
+    <t>DOC C</t>
   </si>
 </sst>
 </file>
@@ -556,16 +565,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821A5894-CA54-7F49-8EE2-C2292D1A84FD}">
   <dimension ref="A2:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +588,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -593,7 +602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -607,7 +616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -621,7 +630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -635,7 +644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -649,7 +658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -663,7 +672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -677,7 +686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -691,7 +700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -712,63 +721,262 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D32DBFD-6BC3-284F-86FB-C636EABF19CD}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScale="144" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D3" s="6">
+        <v>-0.125</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="J3" s="3">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D4" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.8125</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="12"/>
+      <c r="D5" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f>AVERAGE(H3:H6)</f>
+        <v>-0.125</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7:J7" si="0">AVERAGE(I3:I6)</f>
+        <v>0.875</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="3">
+        <v>-2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f>AVERAGE(H10:H13)</f>
+        <v>-0.375</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14:J14" si="1">AVERAGE(I10:I13)</f>
+        <v>-0.375</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f>AVERAGE(H17:H20)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ref="I21:J21" si="2">AVERAGE(I17:I20)</f>
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
